--- a/dansvideo.xlsx
+++ b/dansvideo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kd\xmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2085F2-35EE-4E19-A0C6-2C5CD529FCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213AB237-64B5-4099-8500-5BE27AD085DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E51B0B6-1B5D-4A4E-A3AD-F38A0BDD43F9}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>kaatje zichtbaar</t>
   </si>
@@ -94,15 +94,6 @@
     <t>(ijkpunt)</t>
   </si>
   <si>
-    <t>ine zichtbaar</t>
-  </si>
-  <si>
-    <t>allen zichtbaar</t>
-  </si>
-  <si>
-    <t>78+11/12</t>
-  </si>
-  <si>
     <t>dansvideo</t>
   </si>
   <si>
@@ -143,6 +134,12 @@
   </si>
   <si>
     <t>eq maat</t>
+  </si>
+  <si>
+    <t>ine volledig</t>
+  </si>
+  <si>
+    <t>allen volledig</t>
   </si>
 </sst>
 </file>
@@ -150,7 +147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -183,18 +180,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -203,51 +200,51 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -266,14 +263,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2188CCA-3718-47A6-8E53-DF92337325B9}" name="Table1" displayName="Table1" ref="A16:F24" totalsRowCount="1">
   <autoFilter ref="A16:F23" xr:uid="{8B2CAC42-FA1B-4C1C-89B6-3BF247053995}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E2A2DDAE-49E4-4A7E-B036-851508CC7955}" name="muziekvideo" dataDxfId="10" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{CDE7AE94-BF5D-48AF-9F8A-0A44AB08FCE3}" name="maat" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{CFF3533E-1CD3-4B31-AFF0-0161A11DBE1F}" name="muziektijd" dataDxfId="14" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3C36C6A6-2E93-439A-BCF4-22FA774906AF}" name="tel maat" dataDxfId="13" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4D339C38-4B6F-43BC-8573-055DB3AD4335}" name="uiteindelijke tijd voor dans voor zelfde tel" totalsRowLabel="sum sq fout" dataDxfId="12" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{E2A2DDAE-49E4-4A7E-B036-851508CC7955}" name="muziekvideo" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CDE7AE94-BF5D-48AF-9F8A-0A44AB08FCE3}" name="maat" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CFF3533E-1CD3-4B31-AFF0-0161A11DBE1F}" name="muziektijd" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3C36C6A6-2E93-439A-BCF4-22FA774906AF}" name="tel maat" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4D339C38-4B6F-43BC-8573-055DB3AD4335}" name="uiteindelijke tijd voor dans voor zelfde tel" totalsRowLabel="sum sq fout" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{563A9B49-E0F4-496E-B4FF-A80A4A05745D}" name="fout" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{563A9B49-E0F4-496E-B4FF-A80A4A05745D}" name="fout" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[muziektijd]]-Table1[[#This Row],[uiteindelijke tijd voor dans voor zelfde tel]]</calculatedColumnFormula>
       <totalsRowFormula>F18*F18+F19*F19+F21*F21+F22*F22</totalsRowFormula>
     </tableColumn>
@@ -287,9 +284,9 @@
   <autoFilter ref="A1:D14" xr:uid="{B2C7C1F8-FDE4-4694-834B-BFC5492A928F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6F89CECD-0273-478E-A29D-DCBBE92203C3}" name="dansvideo"/>
-    <tableColumn id="2" xr3:uid="{88F0579C-38FE-40D6-BC3B-A1294AACDB84}" name="tijd in dansvideo" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{BDFDF535-1ECF-44BF-BB11-BD44658FCA4F}" name="tel maat" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{11A30F11-9638-4489-ABE0-8F3E52B19B6D}" name="tijd in muziekvideo" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{88F0579C-38FE-40D6-BC3B-A1294AACDB84}" name="tijd in dansvideo" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{BDFDF535-1ECF-44BF-BB11-BD44658FCA4F}" name="tel maat" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{11A30F11-9638-4489-ABE0-8F3E52B19B6D}" name="tijd in muziekvideo" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,7 +592,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,19 +609,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -636,7 +633,7 @@
       </c>
       <c r="D2" s="1">
         <f>D3-(B$6-B2)*B$26</f>
-        <v>135.47690547325692</v>
+        <v>142.08377617125745</v>
       </c>
       <c r="E2" s="6">
         <v>75.684190779999994</v>
@@ -652,7 +649,7 @@
       </c>
       <c r="D3" s="1">
         <f>D4-(B$6-B3)*B$26</f>
-        <v>138.73899730438853</v>
+        <v>145.37025796423791</v>
       </c>
       <c r="E3" s="6">
         <v>77.648693570000006</v>
@@ -671,7 +668,7 @@
       </c>
       <c r="D4" s="1">
         <f>D5-(B$6-B4)*B$26</f>
-        <v>141.05280662647027</v>
+        <v>147.70136714297988</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -688,7 +685,7 @@
       </c>
       <c r="D5" s="1">
         <f>D6-(B$6-B5)*B$26</f>
-        <v>142.89247469402707</v>
+        <v>149.55479001460259</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -705,13 +702,13 @@
       </c>
       <c r="D6" s="1">
         <f>C20+B25</f>
-        <v>143.51834115</v>
+        <v>150.18533594000002</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <f>6+25/30</f>
@@ -722,13 +719,13 @@
       </c>
       <c r="D7" s="1">
         <f>D6+(B7-B$6)*B$26</f>
-        <v>144.14420760597292</v>
+        <v>150.81588186539744</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <f>9+7/30</f>
@@ -739,7 +736,7 @@
       </c>
       <c r="D8" s="1">
         <f>D7+(B8-B$6)*B$26</f>
-        <v>146.13560087497768</v>
+        <v>152.8221643552983</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -753,7 +750,7 @@
       </c>
       <c r="D9" s="1">
         <f>D8+(B9-B$6)*B$26</f>
-        <v>148.98044840212737</v>
+        <v>155.68828219801381</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -789,7 +786,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <f>17+29/30</f>
@@ -799,7 +796,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <f>20+1/30</f>
@@ -809,37 +806,36 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
-        <f>78+11/12</f>
-        <v>78.916666666666671</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1">
-        <v>140.88333681</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>147.6735625</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -849,21 +845,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1">
-        <v>141.02520833</v>
+        <v>147.6735625</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E17:E23" si="0">D4</f>
-        <v>141.05280662647027</v>
+        <f t="shared" ref="E18:E22" si="0">D4</f>
+        <v>147.70136714297988</v>
       </c>
       <c r="F18" s="1">
         <f>Table1[[#This Row],[uiteindelijke tijd voor dans voor zelfde tel]]-Table1[[#This Row],[muziektijd]]</f>
-        <v>2.7598296470273453E-2</v>
+        <v>2.7804642979873506E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,40 +867,40 @@
         <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1">
-        <v>142.68729687999999</v>
+        <v>149.34807813</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>142.89247469402707</v>
+        <v>149.55479001460259</v>
       </c>
       <c r="F19" s="1">
         <f>Table1[[#This Row],[uiteindelijke tijd voor dans voor zelfde tel]]-Table1[[#This Row],[muziektijd]]</f>
-        <v>0.20517781402708124</v>
+        <v>0.2067118846025835</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>80.5</v>
+        <v>84.5</v>
       </c>
       <c r="C20" s="1">
         <f>0.5*(C19+C21)</f>
-        <v>143.51834115</v>
+        <v>150.18533594000002</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>143.51834115</v>
+        <v>150.18533594000002</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -913,21 +909,21 @@
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1">
-        <v>144.34938542</v>
+        <v>151.02259375</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>144.14420760597292</v>
+        <v>150.81588186539744</v>
       </c>
       <c r="F21" s="1">
         <f>Table1[[#This Row],[uiteindelijke tijd voor dans voor zelfde tel]]-Table1[[#This Row],[muziektijd]]</f>
-        <v>-0.20517781402708124</v>
+        <v>-0.20671188460255507</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,32 +931,32 @@
         <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1">
-        <v>146.01147395999999</v>
+        <v>152.69710936999999</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>146.13560087497768</v>
+        <v>152.8221643552983</v>
       </c>
       <c r="F22" s="1">
         <f>Table1[[#This Row],[uiteindelijke tijd voor dans voor zelfde tel]]-Table1[[#This Row],[muziektijd]]</f>
-        <v>0.12412691497769401</v>
+        <v>0.12505498529830561</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1">
-        <v>147.6735625</v>
+        <v>154.37162499999999</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
@@ -973,16 +969,16 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F24" s="1">
         <f>F18*F18+F19*F19+F21*F21+F22*F22</f>
-        <v>0.10036502772780385</v>
+        <v>0.1018714539910895</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -990,10 +986,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1">
-        <v>0.56896950542993496</v>
+        <v>0.57322356854310386</v>
       </c>
     </row>
   </sheetData>
